--- a/Template/Constant.xlsx
+++ b/Template/Constant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69DBBAA-24D3-4018-9EB7-4275E75024E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC96904-9E42-4AFF-ABEB-F5C2136CA935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3855" yWindow="3195" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,22 @@
   </si>
   <si>
     <t>GachaMythic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSlot1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSlot2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSlot3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenSlot0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,6 +531,50 @@
       </c>
       <c r="C6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Template/Constant.xlsx
+++ b/Template/Constant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Source\ProjectBattleArena\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC96904-9E42-4AFF-ABEB-F5C2136CA935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3BFD353-62A5-4BC4-B02D-BEA3031C65EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>OpenSlot0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaTicketMaxCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArenaTicketChargedCoolTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -446,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
@@ -575,6 +587,31 @@
       </c>
       <c r="C10">
         <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
